--- a/public/assets/xls/toptim-import.xlsx
+++ b/public/assets/xls/toptim-import.xlsx
@@ -116,7 +116,7 @@
     <t>818_1_BENDAGGIO BLU.jpg, 818_244_BENDAGGIO TRICOLORE.jpg, 818_245_BENDAGGIO GRIGIO.jpg, 818_246_BENDAGGIO CAMO VERDE.jpg, 818_247_BENDAGGIO CAMO BLU.jpg, 818_24_BENDAGGIO ROSSO.jpg, 818_2_BENDAGGIO NERO.jpg, 818_96_BENDAGGIO GIALLO FLUO.jpg</t>
   </si>
   <si>
-    <t>100% pamuk</t>
+    <t>100% Pamuk</t>
   </si>
   <si>
     <t>crna.jpg, crvena.jpg, fluo žuta.jpg, maskirno plava.jpg, maskirno zelena.jpg, plava.jpg, siva.jpg, trobojnica.jpg, zelena.jpg, žuta.jpg</t>
@@ -158,7 +158,7 @@
     <t>820_2_unnamed.jpg</t>
   </si>
   <si>
-    <t>Umjetna koža</t>
+    <t>Umjetna Koža</t>
   </si>
   <si>
     <t>Rukavice Camouflage</t>
@@ -194,7 +194,7 @@
     <t>1049_2_guantoni senza dita MMA.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">"Izvana: UMJETNA KOŽA FLEX PU IZNUTRA: GUMENA </t>
+    <t>Izvana: Umjetna Koža Flex Pu Iznutra: Gumena Eva</t>
   </si>
   <si>
     <t>Rukavice Training</t>
@@ -212,7 +212,7 @@
     <t>819_24_GUANTONE TRAINING ROSSO.jpg, 819_26_GUANTONE TRAINING VERDE.jpg, 819_3_GUANTONE TRAINING ROYALL.jpg</t>
   </si>
   <si>
-    <t>Sintetička koža - koža</t>
+    <t>Sintetička Koža - Koža</t>
   </si>
   <si>
     <t>crvena.jpg, royal plava.jpg, zelena.jpg</t>
@@ -447,7 +447,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -478,15 +478,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -510,6 +513,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
@@ -1585,7 +1591,7 @@
     <col min="5" max="5" width="52" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="32.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="95.5391" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.1719" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.85156" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.17188" style="1" customWidth="1"/>
@@ -1742,7 +1748,7 @@
       <c r="E3" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="F3" t="s" s="10">
+      <c r="F3" t="s" s="13">
         <v>34</v>
       </c>
       <c r="G3" t="s" s="6">
@@ -1751,7 +1757,7 @@
       <c r="H3" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="14">
         <v>91.875</v>
       </c>
       <c r="J3" s="9">
@@ -1797,7 +1803,7 @@
       <c r="E4" t="s" s="8">
         <v>40</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" t="s" s="13">
         <v>41</v>
       </c>
       <c r="G4" t="s" s="6">
@@ -1806,7 +1812,7 @@
       <c r="H4" t="s" s="6">
         <v>42</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="14">
         <v>65.625</v>
       </c>
       <c r="J4" s="9">
@@ -1852,7 +1858,7 @@
       <c r="E5" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" t="s" s="13">
         <v>47</v>
       </c>
       <c r="G5" t="s" s="6">
@@ -1861,7 +1867,7 @@
       <c r="H5" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="14">
         <v>65.625</v>
       </c>
       <c r="J5" s="9">
@@ -1907,7 +1913,7 @@
       <c r="E6" t="s" s="8">
         <v>52</v>
       </c>
-      <c r="F6" t="s" s="10">
+      <c r="F6" t="s" s="13">
         <v>53</v>
       </c>
       <c r="G6" t="s" s="6">
@@ -1916,7 +1922,7 @@
       <c r="H6" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="14">
         <v>46.875</v>
       </c>
       <c r="J6" s="9">
@@ -1934,7 +1940,7 @@
       <c r="N6" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="O6" t="s" s="6">
+      <c r="O6" t="s" s="10">
         <v>55</v>
       </c>
       <c r="P6" s="11"/>
@@ -1962,7 +1968,7 @@
       <c r="E7" t="s" s="8">
         <v>58</v>
       </c>
-      <c r="F7" t="s" s="10">
+      <c r="F7" t="s" s="13">
         <v>59</v>
       </c>
       <c r="G7" t="s" s="6">
@@ -1971,7 +1977,7 @@
       <c r="H7" t="s" s="6">
         <v>60</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="14">
         <v>56.25</v>
       </c>
       <c r="J7" s="9">
@@ -2017,7 +2023,7 @@
       <c r="E8" t="s" s="8">
         <v>65</v>
       </c>
-      <c r="F8" t="s" s="10">
+      <c r="F8" t="s" s="13">
         <v>66</v>
       </c>
       <c r="G8" t="s" s="6">
@@ -2026,7 +2032,7 @@
       <c r="H8" t="s" s="6">
         <v>67</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <v>106.875</v>
       </c>
       <c r="J8" s="9">
@@ -2072,7 +2078,7 @@
       <c r="E9" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="F9" t="s" s="10">
+      <c r="F9" t="s" s="13">
         <v>72</v>
       </c>
       <c r="G9" t="s" s="6">
@@ -2081,7 +2087,7 @@
       <c r="H9" t="s" s="6">
         <v>73</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="14">
         <v>10.875</v>
       </c>
       <c r="J9" s="9">
@@ -2125,7 +2131,7 @@
       <c r="E10" t="s" s="8">
         <v>77</v>
       </c>
-      <c r="F10" t="s" s="10">
+      <c r="F10" t="s" s="13">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="6">
@@ -2134,7 +2140,7 @@
       <c r="H10" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="14">
         <v>71.25</v>
       </c>
       <c r="J10" s="9">
@@ -2167,59 +2173,59 @@
       <c r="W10" s="12"/>
     </row>
     <row r="11" ht="19.9" customHeight="1">
-      <c r="A11" t="s" s="14">
+      <c r="A11" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="B11" t="s" s="15">
+      <c r="B11" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="C11" t="s" s="15">
+      <c r="C11" t="s" s="16">
         <v>81</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" t="s" s="17">
+      <c r="D11" s="17"/>
+      <c r="E11" t="s" s="18">
         <v>82</v>
       </c>
-      <c r="F11" t="s" s="18">
+      <c r="F11" t="s" s="19">
         <v>83</v>
       </c>
-      <c r="G11" t="s" s="15">
+      <c r="G11" t="s" s="16">
         <v>27</v>
       </c>
-      <c r="H11" t="s" s="15">
+      <c r="H11" t="s" s="16">
         <v>84</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="20">
         <v>91.875</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="21">
         <v>1000</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="21">
         <v>25</v>
       </c>
-      <c r="L11" t="s" s="15">
+      <c r="L11" t="s" s="16">
         <v>80</v>
       </c>
-      <c r="M11" t="s" s="17">
+      <c r="M11" t="s" s="18">
         <v>82</v>
       </c>
-      <c r="N11" t="s" s="15">
+      <c r="N11" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="O11" t="s" s="18">
+      <c r="O11" t="s" s="22">
         <v>36</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" t="s" s="15">
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" t="s" s="16">
         <v>85</v>
       </c>
-      <c r="W11" s="22"/>
+      <c r="W11" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/public/assets/xls/toptim-import.xlsx
+++ b/public/assets/xls/toptim-import.xlsx
@@ -5530,7 +5530,7 @@
     <t>set-olympia</t>
   </si>
   <si>
-    <t>Trening\Kompleti</t>
+    <t>Trenirke\Kompleti</t>
   </si>
   <si>
     <t>1056_10_kit relax olympia royal.jpg, 1056_42_kit relax olympia bia-blu.jpg, 1056_42_retro kit olympia.jpg, 1056_49_kit relax olympia bia-nero.jpg</t>
@@ -5794,7 +5794,7 @@
     <t>donji-dio-trenirke-3/4-enea</t>
   </si>
   <si>
-    <t>Trening\Donji dio</t>
+    <t>Trenirke\Donji dio</t>
   </si>
   <si>
     <t>958_1_PINOCCHIETTO-ENEA-BLU-OK.jpg, 958_2_PINOCCHIETTO-ENEA-NERO-OK.jpg</t>
@@ -5959,7 +5959,7 @@
     <t>dukserica-glitch</t>
   </si>
   <si>
-    <t>Trening\Gornji dio</t>
+    <t>Trenirke\Gornji dio</t>
   </si>
   <si>
     <t>1300_10_felpa glitch royal fronte.jpg, 1300_124_felpa glitch gialla fronte-.jpg, 1300_124_felpa glitch gialla retro.jpg, 1300_29_felpa-glitch-ROSSO-NERA-fronte-def.jpg, 1300_85_felpa-glitch-rossa-fronte.jpg</t>

--- a/public/assets/xls/toptim-import.xlsx
+++ b/public/assets/xls/toptim-import.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2166">
   <si>
     <t>Naziv</t>
   </si>
@@ -808,7 +808,7 @@
     <t>bandaze</t>
   </si>
   <si>
-    <t>Dresovi\Ostali sportovi\Boks\Bandaže</t>
+    <t>Dresovi\Boks\Bandaže</t>
   </si>
   <si>
     <t>818_1_BENDAGGIO BLU.jpg, 818_244_BENDAGGIO TRICOLORE.jpg, 818_245_BENDAGGIO GRIGIO.jpg, 818_246_BENDAGGIO CAMO VERDE.jpg, 818_247_BENDAGGIO CAMO BLU.jpg, 818_24_BENDAGGIO ROSSO.jpg, 818_2_BENDAGGIO NERO.jpg, 818_96_BENDAGGIO GIALLO FLUO.jpg</t>
@@ -829,7 +829,7 @@
     <t>fokuseri</t>
   </si>
   <si>
-    <t>Dresovi\Ostali sportovi\Boks\Rukavice i fokuseri</t>
+    <t>Dresovi\Boks\Rukavice i fokuseri</t>
   </si>
   <si>
     <t>827_2_GUANTO MAESTRO.jpg</t>
@@ -937,7 +937,7 @@
     <t>stitnici-za-zube</t>
   </si>
   <si>
-    <t>Dresovi\Ostali sportovi\Boks\Štitnici</t>
+    <t>Dresovi\Boks\Štitnici</t>
   </si>
   <si>
     <t>821_107_PARADENTI.jpg</t>
@@ -985,7 +985,7 @@
     <t>pojas-za-mobitel</t>
   </si>
   <si>
-    <t>Dresovi\Ostali sportovi\Trčanje\Dodatci</t>
+    <t>Dresovi\Trčanje\Dodatci</t>
   </si>
   <si>
     <t>1226_2_canotta-phone-fronte.jpg, 1226_2_canotta-phone-tre-quarti.jpg</t>
@@ -1060,7 +1060,7 @@
     <t>set-robert</t>
   </si>
   <si>
-    <t>Dresovi\Ostali sportovi\Trčanje\Kompleti</t>
+    <t>Dresovi\Trčanje\Kompleti</t>
   </si>
   <si>
     <t>354_104_kit_robert_retro-BLUFLUO.jpg, 354_42_kit robert blu bianco.jpg, 354_42_kit_robert_retro_BIANCOBLU.jpg, 354_48_kit robert royal bianco.jpg, 354_48_kit_robert_retro_ROYAL_BIANCO_.jpg, 354_50_kit robert rosso bianco.jpg, 354_50_kit_robert_retro_BIANCO_ROSSO.jpg, kit_robert_arancio.jpg, kit_robert_giallo.jpg, kit_robert_retro.jpg</t>
@@ -1078,7 +1078,7 @@
     <t>podloga-doccia</t>
   </si>
   <si>
-    <t>Dresovi\Ostali sportovi\Vaterpolo i plivanje\Dodatci</t>
+    <t>Dresovi\Vaterpolo i plivanje\Dodatci</t>
   </si>
   <si>
     <t>719_1_tappetino doccia.png</t>
@@ -1147,7 +1147,7 @@
     <t>plivacka-kapica-basik</t>
   </si>
   <si>
-    <t>Dresovi\Ostali sportovi\Vaterpolo i plivanje\Kapice i naočale</t>
+    <t>Dresovi\Vaterpolo i plivanje\Kapice i naočale</t>
   </si>
   <si>
     <t>95_107_cuffia-nuoto-basik.jpg</t>
@@ -1219,7 +1219,7 @@
     <t>ogrtac-swim</t>
   </si>
   <si>
-    <t>Dresovi\Ostali sportovi\Vaterpolo i plivanje\Ogrtači</t>
+    <t>Dresovi\Vaterpolo i plivanje\Ogrtači</t>
   </si>
   <si>
     <t>1228_23_accappatoio-grigio-nero_def.jpg, 1228_2_accappatoio-nero-giallo-fluo-def.jpg, 1228_3_accappatoio royal.jpg</t>
@@ -5530,700 +5530,703 @@
     <t>set-olympia</t>
   </si>
   <si>
+    <t>Trening\Kompleti</t>
+  </si>
+  <si>
+    <t>1056_10_kit relax olympia royal.jpg, 1056_42_kit relax olympia bia-blu.jpg, 1056_42_retro kit olympia.jpg, 1056_49_kit relax olympia bia-nero.jpg</t>
+  </si>
+  <si>
+    <t>Polo: 100% Pamuk, Hlače: 100% Poliester</t>
+  </si>
+  <si>
+    <t>Dvostrani markir Gianno</t>
+  </si>
+  <si>
+    <t>ZS000318</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus dvostrani markir gianno. Izrađeno prema najvišim standardima kvalitete. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>dvostrani-markir-gianno</t>
+  </si>
+  <si>
+    <t>Trening\Markiri</t>
+  </si>
+  <si>
+    <t>139_189_ELECTRIC ROYAL GIALLO FLUO RETRO.jpg, 139_189_ELECTRIC ROYAL GIALLO FLUO.jpg, casacca_giano_verde_fluo-arancio_fluo_mockup.jpg</t>
+  </si>
+  <si>
+    <t>Markir Promo</t>
+  </si>
+  <si>
+    <t>ZS000319</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus markir promo. Izrađeno prema najvišim standardima kvalitete. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>markir-promo</t>
+  </si>
+  <si>
+    <t>1070_1_casacca promo blu.jpg, 1070_23_casacca promo grigio.jpg, 1070_24_casacca promo rosso.jpg, 1070_55_casacca promo sky.jpg, 1070_56_casacca promo rosa.jpg, 1070_95_casacca promo arancio fluo.jpg, 1070_96_casacca promo giallo fluo.jpg, 1070_97_casacca promo verde fluo.jpg</t>
+  </si>
+  <si>
+    <t>Markir Super</t>
+  </si>
+  <si>
+    <t>ZS000320</t>
+  </si>
+  <si>
+    <t>Podignite svoju igru s Zeus markir super. Kombinira stil i funkcionalnost. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>markir-super</t>
+  </si>
+  <si>
+    <t>836_248_CASACCA SUPER ELECTRIC ROYAL mockup.jpg, 836_4_CASACCA SUPER BIANCO mockup.jpg, 836_95_CASACCA SUPER ARANCIO FLUO mockup.jpg, 836_95_CASACCA SUPER retro.jpg, 836_96_CASACCA SUPER GIALLO FLUO mockup.jpg, 836_97_CASACCA SUPER verde FLUO.jpg</t>
+  </si>
+  <si>
+    <t>Podhlače Elastic Pro</t>
+  </si>
+  <si>
+    <t>ZS000321</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus podhlače elastic pro. Savršeno za treninge i natjecanja. Kvalitetni 88% poliamid, 12% elastin osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>podhlace-elastic-pro</t>
+  </si>
+  <si>
+    <t>Trening\Termo rublje\Podhlače</t>
+  </si>
+  <si>
+    <t>71_24_ELASTIC PRO ROSSO 2021 .jpg, 71_25_ELASTIC PRO GIALLO 2021 .jpg, 71_26_ELASTIC PRO VERDE 2021 .jpg, 71_27_ELASTIC PRO GRANATA .jpg, 71_3_ELASTIC PRO ROYAL 2021 .jpg, 71_4_BERMUDA ELASTIC PRO BIANCO_OK.jpg, 71_95_ELASTIC PRO ARANCIO FLUO 2021 .jpg, 71_96_ELASTIC PRO GIALLO  FLUO 2021 .jpg, 71_97_ELASTIC PRO VERDE FLUO 2021 .jpg, bermuda_elastic_pro_blu_ok.jpg, bermuda_elastic_pro_nero_ok.jpg</t>
+  </si>
+  <si>
+    <t>88% Poliamid, 12% Elastin</t>
+  </si>
+  <si>
+    <t>Majica bez rukava Fisiko</t>
+  </si>
+  <si>
+    <t>ZS000322</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus majica bez rukava fisiko. Pruža iznimnu udobnost i izdržljivost. 87% poliester, 13% elastin konstrukcija za najbolje rezultate.</t>
+  </si>
+  <si>
+    <t>majica-bez-rukava-fisiko</t>
+  </si>
+  <si>
+    <t>Trening\Termo rublje\Podmajice</t>
+  </si>
+  <si>
+    <t>427_4_maglia_fisiko_smanicato_retro bianco.jpg, maglia_fisiko_smanicato_bianco.jpg, maglia_fisiko_smanicato_blu.jpg, maglia_fisiko_smanicato_giallo.jpg, maglia_fisiko_smanicato_nero.jpg, maglia_fisiko_smanicato_rosso.jpg, maglia_fisiko_smanicato_royal.jpg</t>
+  </si>
+  <si>
+    <t>Majica dugih rukava Fisiko</t>
+  </si>
+  <si>
+    <t>ZS000323</t>
+  </si>
+  <si>
+    <t>Otkrijte vrhunsku kvalitetu Zeus majica dugih rukava fisiko. Izrađeno prema najvišim standardima kvalitete. 87% poliester, 13% elastin konstrukcija za najbolje rezultate.</t>
+  </si>
+  <si>
+    <t>majica-dugih-rukava-fisiko</t>
+  </si>
+  <si>
+    <t>426_1_MAGLIA FISIKO ML BLU.jpg, 426_24_MAGLIA FISIKO ML ROSSO.jpg, 426_24_maglia-fisiko-ml-retro.jpg, 426_25_MAGLIA FISIKO ML GIALLO.jpg, 426_26_MAGLIA FISIKO ML VERDE.jpg, 426_27_fisiko manica lunga GRANATA.jpg, 426_2_MAGLIA FISIKO ML NERO.jpg, 426_4_MAGLIA FISIKO ML BIANCO.jpg, 426_95_MAGLIA FISIKO ML ARANCIO FLUO.jpg, 426_96_MAGLIA FISIKO ML GIALLO FLUO.jpg, 426_97_MAGLIA FISIKO ML VERDE FLUO.jpg, 426_99_MAGLIA FISIKO ML ROYAL.jpg</t>
+  </si>
+  <si>
+    <t>Majica dugih rukava Lupetto</t>
+  </si>
+  <si>
+    <t>ZS000324</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus majica dugih rukava lupetto. Pruža iznimnu udobnost i izdržljivost. 90% poliamid, 10% elastin konstrukcija za najbolje rezultate.</t>
+  </si>
+  <si>
+    <t>majica-dugih-rukava-lupetto</t>
+  </si>
+  <si>
+    <t>maglia-lupetto-bianco.jpg, maglia-lupetto-nero.jpg</t>
+  </si>
+  <si>
+    <t>90% Poliamid, 10% Elastin</t>
+  </si>
+  <si>
+    <t>Majica kratkih rukava Fisiko</t>
+  </si>
+  <si>
+    <t>ZS000325</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus majica kratkih rukava fisiko. Dizajnirano za optimalne performanse. 87% poliester, 13% elastin konstrukcija za najbolje rezultate.</t>
+  </si>
+  <si>
+    <t>majica-kratkih-rukava-fisiko</t>
+  </si>
+  <si>
+    <t>maglia_fisiko_bianco.jpg, maglia_fisiko_blu.jpg, maglia_fisiko_giallo.jpg, maglia_fisiko_nero.jpg, maglia_fisiko_rossa.jpg, maglia_fisiko_royal.jpg</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>ZS000326</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus fit. Savršeno za treninge i natjecanja. Koristi 40% poliamidna mikrovlakna, 24% poliamid, 16% poliester, 15% polipropilen, 5% elastan za optimalnu udobnost.</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>Trening\Čarape</t>
+  </si>
+  <si>
+    <t>1190_259_CALZA-FIT_GRIGIO.jpg, 1190_278_calza-fit-light-blue_.jpg, 1190_2_CALZA-FIT_NERA.jpg, 1190_4_CALZA-FIT_BIANCA.jpg, 1190_61_CALZA-FIT_FUCSIA.jpg, 1190_95_CALZA-FIT-ARANCIO_FLUO.jpg, 1190_96_CALZA-FIT-GIALLO-FLUO.jpg, 1190_97_CALZA-FIT-VERDE_FLUO.jpg</t>
+  </si>
+  <si>
+    <t>40% Poliamidna mikrovlakna, 24% Poliamid, 16% Poliester, 15% Polipropilen, 5% Elastan</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>ZS000327</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus square. Izrađeno prema najvišim standardima kvalitete. Izrađeno od 65% najlon, 25% pamuk, 10% elastana za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>1042_1_CALZA SQUARE BLU.jpg, 1042_24_CALZA SQUARE ROSSO.jpg, 1042_25_CALZA SQUARE GIALLO.jpg, 1042_26_CALZA SQUARE VERDE.jpg, 1042_27_CALZA SQUARE GRANATA.jpg, 1042_2_CALZA SQUARE.jpg, 1042_3_CALZA SQUARE ROYAL.jpg, 1042_4_CALZA SQUARE BIANCO.jpg</t>
+  </si>
+  <si>
+    <t>65% Najlon, 25% Pamuk, 10% Elastan</t>
+  </si>
+  <si>
+    <t>Tecnika Bassa</t>
+  </si>
+  <si>
+    <t>ZS000328</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus tecnika bassa. Pruža iznimnu udobnost i izdržljivost. Koristi 80% poliamid, 15% pamuk, 5% elastin za optimalnu udobnost.</t>
+  </si>
+  <si>
+    <t>tecnika-bassa</t>
+  </si>
+  <si>
+    <t>763_1_calza-tecnika-bassa-blu_new.jpg, 763_2_calza-tecnika-bassa-nero_.jpg, 763_4_calza-tecnika-bassa-bianca_new.jpg, 763_95_calza-tecnika-bassa-arancio-fluo.jpg, 763_96_calza-tecnika-bassa-giallo-fluo.jpg, 763_97_calza-tecnika-bassa-verde-fluo.jpg</t>
+  </si>
+  <si>
+    <t>80% Poliamid, 15% Pamuk, 5% Elastin</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>ZS000329</t>
+  </si>
+  <si>
+    <t>Iskusite profesionalnu izvedbu s Zeus thunder. Pruža iznimnu udobnost i izdržljivost. Koristi 50% poliester, 19% pamuk, 19% elastin, 10% likra, 2% najlon za optimalnu udobnost.</t>
+  </si>
+  <si>
+    <t>thunder</t>
+  </si>
+  <si>
+    <t>1244_251_calza-thunder-giallo-nero.jpg, 1244_53_calza-thunder-nero-dark-grey-light-blue.jpg, 1244_5_calza-thunder-navy-blue-giallo-fluo_.jpg, 1244_62_calza-thunder-bianco-arancio.jpg</t>
+  </si>
+  <si>
+    <t>50% Poliester, 19% Pamuk, 19% Elastin, 10% Likra, 2% Najlon</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>ZS000330</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus walk. Pruža iznimnu udobnost i izdržljivost. Vrhunski 41% najlon, 35% poliester, 20% pamuk, 4% elastan za najbolju izvedbu.</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>1188_1_calza walk blu.jpg, 1188_2_calza walk nera.jpg, 1188_4_calza walk.jpg</t>
+  </si>
+  <si>
+    <t>41% Najlon, 35% Poliester, 20% Pamuk, 4% Elastan</t>
+  </si>
+  <si>
+    <t>Work Bassa</t>
+  </si>
+  <si>
+    <t>ZS000331</t>
+  </si>
+  <si>
+    <t>Otkrijte vrhunsku kvalitetu Zeus work bassa. Dizajnirano za optimalne performanse. Kvalitetni 85% poliamid, 10% pamuk, 5% elastin osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>work-bassa</t>
+  </si>
+  <si>
+    <t>109_1_calza_work_blu_int.jpg, 109_2_calza_work_bassa_nero_int.jpg, calza_work_bassa_bianca_mockup.jpg</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke 3/4 Enea</t>
+  </si>
+  <si>
+    <t>ZS000332</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus donji dio trenirke 3/4 enea. Savršeno za treninge i natjecanja. 85% poliester, 15% pamuk konstrukcija za najbolje rezultate.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-3/4-enea</t>
+  </si>
+  <si>
+    <t>Trenirke\Donji dio</t>
+  </si>
+  <si>
+    <t>958_1_PINOCCHIETTO-ENEA-BLU-OK.jpg, 958_2_PINOCCHIETTO-ENEA-NERO-OK.jpg</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke 3/4 Start</t>
+  </si>
+  <si>
+    <t>ZS000333</t>
+  </si>
+  <si>
+    <t>Iskusite profesionalnu izvedbu s Zeus donji dio trenirke 3/4 start. Izrađeno prema najvišim standardima kvalitete. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-3/4-start</t>
+  </si>
+  <si>
+    <t>1333_1_pinocchietto-start-tre-quarti-blu.jpg, 1333_2_pinocchietto-start-fronte-nero.jpg, 1333_2_pinocchietto-start-laterale-nero.jpg, 1333_2_pinocchietto-start-retro-nero.jpg, 1333_2_pinocchietto-start-tre-quarti-nero.jpg</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke Easy</t>
+  </si>
+  <si>
+    <t>ZS000334</t>
+  </si>
+  <si>
+    <t>Otkrijte vrhunsku kvalitetu Zeus donji dio trenirke easy. Dizajnirano za optimalne performanse. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-easy</t>
+  </si>
+  <si>
+    <t>1005_1_pant easy.jpg, 1005_2_pant easy nero.jpg, 1005_2_pant easy retro nero.jpg</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke Enea</t>
+  </si>
+  <si>
+    <t>ZS000335</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus donji dio trenirke enea. Dizajnirano za optimalne performanse. Izrađeno od 85% poliester, 15% pamuka za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-enea</t>
+  </si>
+  <si>
+    <t>815_238_PANT ENEA BLU.jpg, 815_239_PANT ENEA NERO.jpg</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke Max</t>
+  </si>
+  <si>
+    <t>ZS000336</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus donji dio trenirke max. Dizajnirano za optimalne performanse. Kvalitetni 100% poliamid osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-max</t>
+  </si>
+  <si>
+    <t>1250_2_pantalone-max-tre-quarti.jpg, 1250_2_pantalone-tre-quarti-RETRO.jpg</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke Monolith</t>
+  </si>
+  <si>
+    <t>ZS000337</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus donji dio trenirke monolith. Dizajnirano za optimalne performanse. Kvalitetni 94% poliester, 6% elastin osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-monolith</t>
+  </si>
+  <si>
+    <t>1016_1_pant-relax-monolith--fronte-blu.jpg, 1016_2_pant-relax-monolith--fronte-nero.jpg, 1016_2_pant-relax-monolith-nero-retro.jpg</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke Monolith train</t>
+  </si>
+  <si>
+    <t>ZS000338</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus donji dio trenirke monolith train. Savršeno za treninge i natjecanja. Kvalitetni 90% poliester, 10% elastin osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-monolith-train</t>
+  </si>
+  <si>
+    <t>1019_1_blu.jpg, 1019_2_pantalone train monolith.jpg</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke Start</t>
+  </si>
+  <si>
+    <t>ZS000339</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus donji dio trenirke start. Savršeno za treninge i natjecanja. Vrhunski 100% poliester za najbolju izvedbu.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-start</t>
+  </si>
+  <si>
+    <t>1334_1_PANT-RELAX-START-FRONTE-BLU-.jpg, 1334_1_PANT-RELAX-START-RETRO-BLU_.jpg, 1334_2_PANT-RELAX-START-FRONTE-NERO.jpg, 1334_2_PANT-RELAX-START-LATERALE-NERO-DEF.jpg, 1334_2_PANT-RELAX-START-RETRO-NERO.jpg</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke Tech</t>
+  </si>
+  <si>
+    <t>ZS000340</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus donji dio trenirke tech. Izrađeno prema najvišim standardima kvalitete. Izrađeno od 60% pamuk, 40% reciklirani poliestera za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-tech</t>
+  </si>
+  <si>
+    <t>1202_1_PANTALONE-TECH-RETRO-BLU.jpg, 1202_1_PANTALONE-TECH-TRE-QUARTI-BLU.jpg, 1202_2_PANTALONE-TECH-TRE-QUARTI-NERO.jpg</t>
+  </si>
+  <si>
+    <t>60% Pamuk, 40% Reciklirani poliester</t>
+  </si>
+  <si>
+    <t>Tijelo: 60% pamuk 40% reciklirani poliester, Umetak: 68% pamuk 32% poliester</t>
+  </si>
+  <si>
+    <t>Donji dio trenirke Ultra</t>
+  </si>
+  <si>
+    <t>ZS000341</t>
+  </si>
+  <si>
+    <t>Iskusite profesionalnu izvedbu s Zeus donji dio trenirke ultra. Kombinira stil i funkcionalnost. Vrhunski 65% pamuk, 35% poliester za najbolju izvedbu.</t>
+  </si>
+  <si>
+    <t>donji-dio-trenirke-ultra</t>
+  </si>
+  <si>
+    <t>1184_1_PANTALONE ULTRA BLU.jpg, 1184_23_PANTALONE ULTRA GRIGIO.jpg, 1184_2_PANTALONE ULTRA NERO.jpg</t>
+  </si>
+  <si>
+    <t>65% Pamuk, 35% Poliester</t>
+  </si>
+  <si>
+    <t>290gr</t>
+  </si>
+  <si>
+    <t>Dukserica Glitch</t>
+  </si>
+  <si>
+    <t>ZS000342</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus dukserica glitch. Pruža iznimnu udobnost i izdržljivost. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>dukserica-glitch</t>
+  </si>
+  <si>
+    <t>Trenirke\Gornji dio</t>
+  </si>
+  <si>
+    <t>1300_10_felpa glitch royal fronte.jpg, 1300_124_felpa glitch gialla fronte-.jpg, 1300_124_felpa glitch gialla retro.jpg, 1300_29_felpa-glitch-ROSSO-NERA-fronte-def.jpg, 1300_85_felpa-glitch-rossa-fronte.jpg</t>
+  </si>
+  <si>
+    <t>Dukserica kratkih rukava Max</t>
+  </si>
+  <si>
+    <t>ZS000343</t>
+  </si>
+  <si>
+    <t>Podignite svoju igru s Zeus dukserica kratkih rukava max. Dizajnirano za optimalne performanse. 100% poliamid konstrukcija za najbolje rezultate.</t>
+  </si>
+  <si>
+    <t>dukserica-kratkih-rukava-max</t>
+  </si>
+  <si>
+    <t>1251_2_Felpa-max-retro.jpg, 1251_2_Felpa-max-tre-quarti.jpg</t>
+  </si>
+  <si>
+    <t>Standardt fit</t>
+  </si>
+  <si>
+    <t>Dukserica Monolith</t>
+  </si>
+  <si>
+    <t>ZS000344</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus dukserica monolith. Kombinira stil i funkcionalnost. Koristi 100% brušeni poliester za optimalnu udobnost.</t>
+  </si>
+  <si>
+    <t>dukserica-monolith</t>
+  </si>
+  <si>
+    <t>1015_1_FELPA RELAX MONOLITH.jpg, 1015_2_FELPA RELAX MONOLITH NERA.jpg, 1015_2_FELPA RELAX MONOLITH RETRO.jpg</t>
+  </si>
+  <si>
+    <t>100% Brušeni poliester</t>
+  </si>
+  <si>
+    <t>Dukserica Ultra</t>
+  </si>
+  <si>
+    <t>ZS000345</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus dukserica ultra. Pruža iznimnu udobnost i izdržljivost. Vrhunski 65% pamuk, 35% poliester za najbolju izvedbu.</t>
+  </si>
+  <si>
+    <t>dukserica-ultra</t>
+  </si>
+  <si>
+    <t>1186_1_FELPA ULTRA BLU.jpg, 1186_23_FELPA ULTRA GRIGIO.jpg, 1186_24_FELPA ULTRA ROSSO.jpg, 1186_24_RETRO FELPA ULTRA ROSSA.jpg, 1186_2_FELPA ULTRA NERA.jpg, 1186_3_FELPA ULTRA ROYAL.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Enea</t>
+  </si>
+  <si>
+    <t>ZS000346</t>
+  </si>
+  <si>
+    <t>Iskusite profesionalnu izvedbu s Zeus gornji dio trenirke enea. Pruža iznimnu udobnost i izdržljivost. Izrađeno od 85% poliester, 15% pamuka za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-enea</t>
+  </si>
+  <si>
+    <t>816_231_FELPA ENEA ROSSA OK.jpg, 816_238_FELPA ENEA BLU OK.jpg, 816_239_FELPA ENEA NERA OK.jpg, 816_240_FELPA ENEA GIALLO FLUO OK.jpg, 816_240_FELPA ENEA GIALLO FLUO RETRO.jpg, 816_241_FELPA ENEA ROYAL OK.jpg, 816_242_FELPA ENEA VERDE OK.jpg, 816_243_FELPA ENEA GIALLO OK.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Enea zip up</t>
+  </si>
+  <si>
+    <t>ZS000347</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus gornji dio trenirke enea zip up. Dizajnirano za optimalne performanse. 85% poliester, 15% pamuk konstrukcija za najbolje rezultate.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-enea-zip-up</t>
+  </si>
+  <si>
+    <t>830_231_GIACCA ENEA ROSSA OK.jpg, 830_240_GIACCA ENEA GIALLO FLUO OK.jpg, 830_241_GIACCA ENEA ROYAL OK.jpg, 830_242_GIACCA ENEA RETRO VERDE.jpg, 830_242_GIACCA ENEA VERDE OK.jpg, 830_243_GIACCA ENEA GIALLO OK.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Glitch</t>
+  </si>
+  <si>
+    <t>ZS000348</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus gornji dio trenirke glitch. Savršeno za treninge i natjecanja. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-glitch</t>
+  </si>
+  <si>
+    <t>1304_89_felpa-girocollo-glitch-nero-giallo-fronte.jpg, 1304_89_felpa-girocollo-glitch-nero-giallo-retro.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Monolith micro</t>
+  </si>
+  <si>
+    <t>ZS000349</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus gornji dio trenirke monolith micro. Dizajnirano za optimalne performanse. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-monolith-micro</t>
+  </si>
+  <si>
+    <t>1018_1_giacca micro monolith blu.jpg, 1018_24_giacca micro monolith rosso.jpg, 1018_25_giacca micro monolith giallo.jpg, 1018_26_giacca micro monolith Verde.jpg, 1018_2_fronte nero.jpg, 1018_2_retro.jpg, 1018_3_giacca micro monolith royal.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Monolith train</t>
+  </si>
+  <si>
+    <t>ZS000350</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus gornji dio trenirke monolith train. Izrađeno prema najvišim standardima kvalitete. Kvalitetni 100% poli brušeno osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-monolith-train</t>
+  </si>
+  <si>
+    <t>1020_1_FELPA TRAIN MONOLITH BLU.jpg, 1020_24_FELPA TRAIN MONOLITH ROSSO.jpg, 1020_25_FELPA TRAIN MONOLITH GIALLO.jpg, 1020_26_FELPA TRAIN MONOLITH VERDE.jpg, 1020_2_FELPA TRAIN MONOLITH NERA.jpg, 1020_3_felpa train monolith retro royal.jpg, 1020_3_FELPA TRAIN MONOLITH ROYAL.jpg</t>
+  </si>
+  <si>
+    <t>100% Poli brušeno</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Monolith zip up</t>
+  </si>
+  <si>
+    <t>ZS000351</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus gornji dio trenirke monolith zip up. Izrađeno prema najvišim standardima kvalitete. Vrhunski 100% brušeni poliester za najbolju izvedbu.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-monolith-zip-up</t>
+  </si>
+  <si>
+    <t>1017_1_giacca relax monolith BLU.jpg, 1017_2_FELPA RELAX MONOLITH RETRO.jpg, 1017_2_giacca relax monolith.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Pile</t>
+  </si>
+  <si>
+    <t>ZS000352</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus gornji dio trenirke pile. Dizajnirano za optimalne performanse. Izrađeno od 100% mekani poliestera za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-pile</t>
+  </si>
+  <si>
+    <t>felpa_pile_blu.jpg, felpa_pile_grigia.jpg, felpa_pile_nera.jpg, felpa_pile_rossa.jpg, felpa_pile_royal.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Spot</t>
+  </si>
+  <si>
+    <t>ZS000353</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus gornji dio trenirke spot. Dizajnirano za optimalne performanse. Kvalitetni 65% pamuk, 35% poliester osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-spot</t>
+  </si>
+  <si>
+    <t>1187_1_FEELPA SPOT BLU.jpg, 1187_23_FEELPA SPOT GRIGI.jpg, 1187_24_FEELPA SPOT rosso.jpg, 1187_2_FEELPA SPOT nera.jpg, 1187_3_FEELPA SPOT royal.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Start</t>
+  </si>
+  <si>
+    <t>ZS000354</t>
+  </si>
+  <si>
+    <t>Otkrijte vrhunsku kvalitetu Zeus gornji dio trenirke start. Izrađeno prema najvišim standardima kvalitete. Koristi 100% poliester za optimalnu udobnost.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-start</t>
+  </si>
+  <si>
+    <t>1337_1_GIACCA-RELAX-BLU-ROYAL.jpg, 1337_23_GIACCA-RELAX-GRIGIA.jpg, 1337_24_GIACCA-RELAX-ROSSA-fronte def.jpg, 1337_25_GIACCA-RELAX-GIALLA-def.jpg, 1337_26_GIACCA-RELAX-VERDE.jpg, 1337_27_GIACCA-RELAX-GRANATA.jpg, 1337_2_GIACCA-RELAX-NERA.jpg, 1337_300_GIACCA-RALEX-START-PINK-FLUO-FRONTE.jpg, 1337_3_GIACCA-RELAX-ROYAL-BLU.jpg, 1337_4_GIACCA-RELAX-BIANCA.jpg, 1337_95_GIACCA-RELAX-ARANCIO-FLUO-FRONTE.jpg, 1337_95_GIACCA-RELAX-ARANCIO-FLUO-RETRO-.jpg, 1337_96_GIACCA-RELAX-BLU-GIALLO-FLUO.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Start train</t>
+  </si>
+  <si>
+    <t>ZS000355</t>
+  </si>
+  <si>
+    <t>Unaprijedite svoj igru s Zeus gornji dio trenirke start train. Dizajnirano za optimalne performanse. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-start-train</t>
+  </si>
+  <si>
+    <t>1338_1_FELPA-START-BLU-ROYAL-FRONTE.jpg, 1338_23_FELPA-START-GRIGIA-FRONTE.jpg, 1338_24_FELPA-START-ROSSA-FRONTE-def.jpg, 1338_25_FELPA-START-GIALLA-FRONTE-def.jpg, 1338_26_FELPA-START-VERDE-FRONTE.jpg, 1338_27_FELPA-START-GRANATA-FRONTE.jpg, 1338_2_FELPA-START-NERO-BIANCA-FRONTE.jpg, 1338_300_FELPA-START-PINK-FLUO-FRONTE.jpg, 1338_3_FELPA-START-ROYAL-BLU-FRONTE.jpg, 1338_3_FELPA-START-ROYAL-BLU-RETRO.jpg, 1338_4_FELPA-START-BIANCA-FRONTE-.jpg, 1338_95_FELPA-RELAX-START-ARANCIO-FLUO-FRONTE.jpg, 1338_96_FELPA-START-BLU-GIALLO-FLUO-FRONTE.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Tech</t>
+  </si>
+  <si>
+    <t>ZS000356</t>
+  </si>
+  <si>
+    <t>Otkrijte vrhunsku kvalitetu Zeus gornji dio trenirke tech. Dizajnirano za optimalne performanse. 60% pamuk, 40% poliester konstrukcija za najbolje rezultate.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-tech</t>
+  </si>
+  <si>
+    <t>1199_1_techblu.jpg, 1199_24_techrosso.jpg, 1199_259_felpatechgrigio01fronte.jpg, 1199_27_FELPA-TECH-MONOCOLOR-GRANATA-RETRO.jpg, 1199_27_techgranata.jpg, 1199_2_NERO01.jpg, 1199_3_royal01.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Tech Bikolor</t>
+  </si>
+  <si>
+    <t>ZS000357</t>
+  </si>
+  <si>
+    <t>Doživite razliku s Zeus gornji dio trenirke tech bikolor. Izrađeno prema najvišim standardima kvalitete. Vrhunski 60% pamuk, 40% poliester za najbolju izvedbu.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-tech-bikolor</t>
+  </si>
+  <si>
+    <t>1201_13_01blu_royal copia.jpg, 1201_19_grigianera01.jpg, 1201_275_verde01.jpg, 1201_85_bikolorrossoblu_01_.jpg, 1201_85_bikolorrossoblu_retro.jpg</t>
+  </si>
+  <si>
+    <t>Gornji dio trenirke Ultra</t>
+  </si>
+  <si>
+    <t>ZS000358</t>
+  </si>
+  <si>
+    <t>Iskusite profesionalnu izvedbu s Zeus gornji dio trenirke ultra. Izrađeno prema najvišim standardima kvalitete. 65% pamuk, 35% poliester konstrukcija za najbolje rezultate.</t>
+  </si>
+  <si>
+    <t>gornji-dio-trenirke-ultra</t>
+  </si>
+  <si>
+    <t>1185_1_FELPA ULTRA CON ZIP BLU.jpg, 1185_23_FELPA ULTRA CON ZIP GRIGIO.jpg, 1185_24_FELPA ULTRA CON ZIP ROSSO.jpg, 1185_2_FELPA ULTRA CON ZIP NERO.jpg, 1185_3_FELPA ULTRA CON ZIP ROYAL.jpg, 1185_3_RETRO FELPA ULTRA CON ZIP royal-.jpg</t>
+  </si>
+  <si>
+    <t>Trenirka Apollo</t>
+  </si>
+  <si>
+    <t>ZS000359</t>
+  </si>
+  <si>
+    <t>Podignite svoju igru s Zeus trenirka apollo. Pruža iznimnu udobnost i izdržljivost. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
+  </si>
+  <si>
+    <t>trenirka-apollo</t>
+  </si>
+  <si>
     <t>Trenirke\Kompleti</t>
-  </si>
-  <si>
-    <t>1056_10_kit relax olympia royal.jpg, 1056_42_kit relax olympia bia-blu.jpg, 1056_42_retro kit olympia.jpg, 1056_49_kit relax olympia bia-nero.jpg</t>
-  </si>
-  <si>
-    <t>Polo: 100% Pamuk, Hlače: 100% Poliester</t>
-  </si>
-  <si>
-    <t>Dvostrani markir Gianno</t>
-  </si>
-  <si>
-    <t>ZS000318</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus dvostrani markir gianno. Izrađeno prema najvišim standardima kvalitete. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>dvostrani-markir-gianno</t>
-  </si>
-  <si>
-    <t>Trening\Markiri</t>
-  </si>
-  <si>
-    <t>139_189_ELECTRIC ROYAL GIALLO FLUO RETRO.jpg, 139_189_ELECTRIC ROYAL GIALLO FLUO.jpg, casacca_giano_verde_fluo-arancio_fluo_mockup.jpg</t>
-  </si>
-  <si>
-    <t>Markir Promo</t>
-  </si>
-  <si>
-    <t>ZS000319</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus markir promo. Izrađeno prema najvišim standardima kvalitete. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>markir-promo</t>
-  </si>
-  <si>
-    <t>1070_1_casacca promo blu.jpg, 1070_23_casacca promo grigio.jpg, 1070_24_casacca promo rosso.jpg, 1070_55_casacca promo sky.jpg, 1070_56_casacca promo rosa.jpg, 1070_95_casacca promo arancio fluo.jpg, 1070_96_casacca promo giallo fluo.jpg, 1070_97_casacca promo verde fluo.jpg</t>
-  </si>
-  <si>
-    <t>Markir Super</t>
-  </si>
-  <si>
-    <t>ZS000320</t>
-  </si>
-  <si>
-    <t>Podignite svoju igru s Zeus markir super. Kombinira stil i funkcionalnost. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>markir-super</t>
-  </si>
-  <si>
-    <t>836_248_CASACCA SUPER ELECTRIC ROYAL mockup.jpg, 836_4_CASACCA SUPER BIANCO mockup.jpg, 836_95_CASACCA SUPER ARANCIO FLUO mockup.jpg, 836_95_CASACCA SUPER retro.jpg, 836_96_CASACCA SUPER GIALLO FLUO mockup.jpg, 836_97_CASACCA SUPER verde FLUO.jpg</t>
-  </si>
-  <si>
-    <t>Podhlače Elastic Pro</t>
-  </si>
-  <si>
-    <t>ZS000321</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus podhlače elastic pro. Savršeno za treninge i natjecanja. Kvalitetni 88% poliamid, 12% elastin osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>podhlace-elastic-pro</t>
-  </si>
-  <si>
-    <t>Trening\Termo rublje\Podhlače</t>
-  </si>
-  <si>
-    <t>71_24_ELASTIC PRO ROSSO 2021 .jpg, 71_25_ELASTIC PRO GIALLO 2021 .jpg, 71_26_ELASTIC PRO VERDE 2021 .jpg, 71_27_ELASTIC PRO GRANATA .jpg, 71_3_ELASTIC PRO ROYAL 2021 .jpg, 71_4_BERMUDA ELASTIC PRO BIANCO_OK.jpg, 71_95_ELASTIC PRO ARANCIO FLUO 2021 .jpg, 71_96_ELASTIC PRO GIALLO  FLUO 2021 .jpg, 71_97_ELASTIC PRO VERDE FLUO 2021 .jpg, bermuda_elastic_pro_blu_ok.jpg, bermuda_elastic_pro_nero_ok.jpg</t>
-  </si>
-  <si>
-    <t>88% Poliamid, 12% Elastin</t>
-  </si>
-  <si>
-    <t>Majica bez rukava Fisiko</t>
-  </si>
-  <si>
-    <t>ZS000322</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus majica bez rukava fisiko. Pruža iznimnu udobnost i izdržljivost. 87% poliester, 13% elastin konstrukcija za najbolje rezultate.</t>
-  </si>
-  <si>
-    <t>majica-bez-rukava-fisiko</t>
-  </si>
-  <si>
-    <t>Trening\Termo rublje\Podmajice</t>
-  </si>
-  <si>
-    <t>427_4_maglia_fisiko_smanicato_retro bianco.jpg, maglia_fisiko_smanicato_bianco.jpg, maglia_fisiko_smanicato_blu.jpg, maglia_fisiko_smanicato_giallo.jpg, maglia_fisiko_smanicato_nero.jpg, maglia_fisiko_smanicato_rosso.jpg, maglia_fisiko_smanicato_royal.jpg</t>
-  </si>
-  <si>
-    <t>Majica dugih rukava Fisiko</t>
-  </si>
-  <si>
-    <t>ZS000323</t>
-  </si>
-  <si>
-    <t>Otkrijte vrhunsku kvalitetu Zeus majica dugih rukava fisiko. Izrađeno prema najvišim standardima kvalitete. 87% poliester, 13% elastin konstrukcija za najbolje rezultate.</t>
-  </si>
-  <si>
-    <t>majica-dugih-rukava-fisiko</t>
-  </si>
-  <si>
-    <t>426_1_MAGLIA FISIKO ML BLU.jpg, 426_24_MAGLIA FISIKO ML ROSSO.jpg, 426_24_maglia-fisiko-ml-retro.jpg, 426_25_MAGLIA FISIKO ML GIALLO.jpg, 426_26_MAGLIA FISIKO ML VERDE.jpg, 426_27_fisiko manica lunga GRANATA.jpg, 426_2_MAGLIA FISIKO ML NERO.jpg, 426_4_MAGLIA FISIKO ML BIANCO.jpg, 426_95_MAGLIA FISIKO ML ARANCIO FLUO.jpg, 426_96_MAGLIA FISIKO ML GIALLO FLUO.jpg, 426_97_MAGLIA FISIKO ML VERDE FLUO.jpg, 426_99_MAGLIA FISIKO ML ROYAL.jpg</t>
-  </si>
-  <si>
-    <t>Majica dugih rukava Lupetto</t>
-  </si>
-  <si>
-    <t>ZS000324</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus majica dugih rukava lupetto. Pruža iznimnu udobnost i izdržljivost. 90% poliamid, 10% elastin konstrukcija za najbolje rezultate.</t>
-  </si>
-  <si>
-    <t>majica-dugih-rukava-lupetto</t>
-  </si>
-  <si>
-    <t>maglia-lupetto-bianco.jpg, maglia-lupetto-nero.jpg</t>
-  </si>
-  <si>
-    <t>90% Poliamid, 10% Elastin</t>
-  </si>
-  <si>
-    <t>Majica kratkih rukava Fisiko</t>
-  </si>
-  <si>
-    <t>ZS000325</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus majica kratkih rukava fisiko. Dizajnirano za optimalne performanse. 87% poliester, 13% elastin konstrukcija za najbolje rezultate.</t>
-  </si>
-  <si>
-    <t>majica-kratkih-rukava-fisiko</t>
-  </si>
-  <si>
-    <t>maglia_fisiko_bianco.jpg, maglia_fisiko_blu.jpg, maglia_fisiko_giallo.jpg, maglia_fisiko_nero.jpg, maglia_fisiko_rossa.jpg, maglia_fisiko_royal.jpg</t>
-  </si>
-  <si>
-    <t>Fit</t>
-  </si>
-  <si>
-    <t>ZS000326</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus fit. Savršeno za treninge i natjecanja. Koristi 40% poliamidna mikrovlakna, 24% poliamid, 16% poliester, 15% polipropilen, 5% elastan za optimalnu udobnost.</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>Trening\Čarape</t>
-  </si>
-  <si>
-    <t>1190_259_CALZA-FIT_GRIGIO.jpg, 1190_278_calza-fit-light-blue_.jpg, 1190_2_CALZA-FIT_NERA.jpg, 1190_4_CALZA-FIT_BIANCA.jpg, 1190_61_CALZA-FIT_FUCSIA.jpg, 1190_95_CALZA-FIT-ARANCIO_FLUO.jpg, 1190_96_CALZA-FIT-GIALLO-FLUO.jpg, 1190_97_CALZA-FIT-VERDE_FLUO.jpg</t>
-  </si>
-  <si>
-    <t>40% Poliamidna mikrovlakna, 24% Poliamid, 16% Poliester, 15% Polipropilen, 5% Elastan</t>
-  </si>
-  <si>
-    <t>Square</t>
-  </si>
-  <si>
-    <t>ZS000327</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus square. Izrađeno prema najvišim standardima kvalitete. Izrađeno od 65% najlon, 25% pamuk, 10% elastana za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>1042_1_CALZA SQUARE BLU.jpg, 1042_24_CALZA SQUARE ROSSO.jpg, 1042_25_CALZA SQUARE GIALLO.jpg, 1042_26_CALZA SQUARE VERDE.jpg, 1042_27_CALZA SQUARE GRANATA.jpg, 1042_2_CALZA SQUARE.jpg, 1042_3_CALZA SQUARE ROYAL.jpg, 1042_4_CALZA SQUARE BIANCO.jpg</t>
-  </si>
-  <si>
-    <t>65% Najlon, 25% Pamuk, 10% Elastan</t>
-  </si>
-  <si>
-    <t>Tecnika Bassa</t>
-  </si>
-  <si>
-    <t>ZS000328</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus tecnika bassa. Pruža iznimnu udobnost i izdržljivost. Koristi 80% poliamid, 15% pamuk, 5% elastin za optimalnu udobnost.</t>
-  </si>
-  <si>
-    <t>tecnika-bassa</t>
-  </si>
-  <si>
-    <t>763_1_calza-tecnika-bassa-blu_new.jpg, 763_2_calza-tecnika-bassa-nero_.jpg, 763_4_calza-tecnika-bassa-bianca_new.jpg, 763_95_calza-tecnika-bassa-arancio-fluo.jpg, 763_96_calza-tecnika-bassa-giallo-fluo.jpg, 763_97_calza-tecnika-bassa-verde-fluo.jpg</t>
-  </si>
-  <si>
-    <t>80% Poliamid, 15% Pamuk, 5% Elastin</t>
-  </si>
-  <si>
-    <t>Thunder</t>
-  </si>
-  <si>
-    <t>ZS000329</t>
-  </si>
-  <si>
-    <t>Iskusite profesionalnu izvedbu s Zeus thunder. Pruža iznimnu udobnost i izdržljivost. Koristi 50% poliester, 19% pamuk, 19% elastin, 10% likra, 2% najlon za optimalnu udobnost.</t>
-  </si>
-  <si>
-    <t>thunder</t>
-  </si>
-  <si>
-    <t>1244_251_calza-thunder-giallo-nero.jpg, 1244_53_calza-thunder-nero-dark-grey-light-blue.jpg, 1244_5_calza-thunder-navy-blue-giallo-fluo_.jpg, 1244_62_calza-thunder-bianco-arancio.jpg</t>
-  </si>
-  <si>
-    <t>50% Poliester, 19% Pamuk, 19% Elastin, 10% Likra, 2% Najlon</t>
-  </si>
-  <si>
-    <t>Walk</t>
-  </si>
-  <si>
-    <t>ZS000330</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus walk. Pruža iznimnu udobnost i izdržljivost. Vrhunski 41% najlon, 35% poliester, 20% pamuk, 4% elastan za najbolju izvedbu.</t>
-  </si>
-  <si>
-    <t>walk</t>
-  </si>
-  <si>
-    <t>1188_1_calza walk blu.jpg, 1188_2_calza walk nera.jpg, 1188_4_calza walk.jpg</t>
-  </si>
-  <si>
-    <t>41% Najlon, 35% Poliester, 20% Pamuk, 4% Elastan</t>
-  </si>
-  <si>
-    <t>Work Bassa</t>
-  </si>
-  <si>
-    <t>ZS000331</t>
-  </si>
-  <si>
-    <t>Otkrijte vrhunsku kvalitetu Zeus work bassa. Dizajnirano za optimalne performanse. Kvalitetni 85% poliamid, 10% pamuk, 5% elastin osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>work-bassa</t>
-  </si>
-  <si>
-    <t>109_1_calza_work_blu_int.jpg, 109_2_calza_work_bassa_nero_int.jpg, calza_work_bassa_bianca_mockup.jpg</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke 3/4 Enea</t>
-  </si>
-  <si>
-    <t>ZS000332</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus donji dio trenirke 3/4 enea. Savršeno za treninge i natjecanja. 85% poliester, 15% pamuk konstrukcija za najbolje rezultate.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-3/4-enea</t>
-  </si>
-  <si>
-    <t>Trenirke\Donji dio</t>
-  </si>
-  <si>
-    <t>958_1_PINOCCHIETTO-ENEA-BLU-OK.jpg, 958_2_PINOCCHIETTO-ENEA-NERO-OK.jpg</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke 3/4 Start</t>
-  </si>
-  <si>
-    <t>ZS000333</t>
-  </si>
-  <si>
-    <t>Iskusite profesionalnu izvedbu s Zeus donji dio trenirke 3/4 start. Izrađeno prema najvišim standardima kvalitete. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-3/4-start</t>
-  </si>
-  <si>
-    <t>1333_1_pinocchietto-start-tre-quarti-blu.jpg, 1333_2_pinocchietto-start-fronte-nero.jpg, 1333_2_pinocchietto-start-laterale-nero.jpg, 1333_2_pinocchietto-start-retro-nero.jpg, 1333_2_pinocchietto-start-tre-quarti-nero.jpg</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke Easy</t>
-  </si>
-  <si>
-    <t>ZS000334</t>
-  </si>
-  <si>
-    <t>Otkrijte vrhunsku kvalitetu Zeus donji dio trenirke easy. Dizajnirano za optimalne performanse. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-easy</t>
-  </si>
-  <si>
-    <t>1005_1_pant easy.jpg, 1005_2_pant easy nero.jpg, 1005_2_pant easy retro nero.jpg</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke Enea</t>
-  </si>
-  <si>
-    <t>ZS000335</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus donji dio trenirke enea. Dizajnirano za optimalne performanse. Izrađeno od 85% poliester, 15% pamuka za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-enea</t>
-  </si>
-  <si>
-    <t>815_238_PANT ENEA BLU.jpg, 815_239_PANT ENEA NERO.jpg</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke Max</t>
-  </si>
-  <si>
-    <t>ZS000336</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus donji dio trenirke max. Dizajnirano za optimalne performanse. Kvalitetni 100% poliamid osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-max</t>
-  </si>
-  <si>
-    <t>1250_2_pantalone-max-tre-quarti.jpg, 1250_2_pantalone-tre-quarti-RETRO.jpg</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke Monolith</t>
-  </si>
-  <si>
-    <t>ZS000337</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus donji dio trenirke monolith. Dizajnirano za optimalne performanse. Kvalitetni 94% poliester, 6% elastin osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-monolith</t>
-  </si>
-  <si>
-    <t>1016_1_pant-relax-monolith--fronte-blu.jpg, 1016_2_pant-relax-monolith--fronte-nero.jpg, 1016_2_pant-relax-monolith-nero-retro.jpg</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke Monolith train</t>
-  </si>
-  <si>
-    <t>ZS000338</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus donji dio trenirke monolith train. Savršeno za treninge i natjecanja. Kvalitetni 90% poliester, 10% elastin osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-monolith-train</t>
-  </si>
-  <si>
-    <t>1019_1_blu.jpg, 1019_2_pantalone train monolith.jpg</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke Start</t>
-  </si>
-  <si>
-    <t>ZS000339</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus donji dio trenirke start. Savršeno za treninge i natjecanja. Vrhunski 100% poliester za najbolju izvedbu.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-start</t>
-  </si>
-  <si>
-    <t>1334_1_PANT-RELAX-START-FRONTE-BLU-.jpg, 1334_1_PANT-RELAX-START-RETRO-BLU_.jpg, 1334_2_PANT-RELAX-START-FRONTE-NERO.jpg, 1334_2_PANT-RELAX-START-LATERALE-NERO-DEF.jpg, 1334_2_PANT-RELAX-START-RETRO-NERO.jpg</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke Tech</t>
-  </si>
-  <si>
-    <t>ZS000340</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus donji dio trenirke tech. Izrađeno prema najvišim standardima kvalitete. Izrađeno od 60% pamuk, 40% reciklirani poliestera za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-tech</t>
-  </si>
-  <si>
-    <t>1202_1_PANTALONE-TECH-RETRO-BLU.jpg, 1202_1_PANTALONE-TECH-TRE-QUARTI-BLU.jpg, 1202_2_PANTALONE-TECH-TRE-QUARTI-NERO.jpg</t>
-  </si>
-  <si>
-    <t>60% Pamuk, 40% Reciklirani poliester</t>
-  </si>
-  <si>
-    <t>Tijelo: 60% pamuk 40% reciklirani poliester, Umetak: 68% pamuk 32% poliester</t>
-  </si>
-  <si>
-    <t>Donji dio trenirke Ultra</t>
-  </si>
-  <si>
-    <t>ZS000341</t>
-  </si>
-  <si>
-    <t>Iskusite profesionalnu izvedbu s Zeus donji dio trenirke ultra. Kombinira stil i funkcionalnost. Vrhunski 65% pamuk, 35% poliester za najbolju izvedbu.</t>
-  </si>
-  <si>
-    <t>donji-dio-trenirke-ultra</t>
-  </si>
-  <si>
-    <t>1184_1_PANTALONE ULTRA BLU.jpg, 1184_23_PANTALONE ULTRA GRIGIO.jpg, 1184_2_PANTALONE ULTRA NERO.jpg</t>
-  </si>
-  <si>
-    <t>65% Pamuk, 35% Poliester</t>
-  </si>
-  <si>
-    <t>290gr</t>
-  </si>
-  <si>
-    <t>Dukserica Glitch</t>
-  </si>
-  <si>
-    <t>ZS000342</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus dukserica glitch. Pruža iznimnu udobnost i izdržljivost. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>dukserica-glitch</t>
-  </si>
-  <si>
-    <t>Trenirke\Gornji dio</t>
-  </si>
-  <si>
-    <t>1300_10_felpa glitch royal fronte.jpg, 1300_124_felpa glitch gialla fronte-.jpg, 1300_124_felpa glitch gialla retro.jpg, 1300_29_felpa-glitch-ROSSO-NERA-fronte-def.jpg, 1300_85_felpa-glitch-rossa-fronte.jpg</t>
-  </si>
-  <si>
-    <t>Dukserica kratkih rukava Max</t>
-  </si>
-  <si>
-    <t>ZS000343</t>
-  </si>
-  <si>
-    <t>Podignite svoju igru s Zeus dukserica kratkih rukava max. Dizajnirano za optimalne performanse. 100% poliamid konstrukcija za najbolje rezultate.</t>
-  </si>
-  <si>
-    <t>dukserica-kratkih-rukava-max</t>
-  </si>
-  <si>
-    <t>1251_2_Felpa-max-retro.jpg, 1251_2_Felpa-max-tre-quarti.jpg</t>
-  </si>
-  <si>
-    <t>Standardt fit</t>
-  </si>
-  <si>
-    <t>Dukserica Monolith</t>
-  </si>
-  <si>
-    <t>ZS000344</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus dukserica monolith. Kombinira stil i funkcionalnost. Koristi 100% brušeni poliester za optimalnu udobnost.</t>
-  </si>
-  <si>
-    <t>dukserica-monolith</t>
-  </si>
-  <si>
-    <t>1015_1_FELPA RELAX MONOLITH.jpg, 1015_2_FELPA RELAX MONOLITH NERA.jpg, 1015_2_FELPA RELAX MONOLITH RETRO.jpg</t>
-  </si>
-  <si>
-    <t>100% Brušeni poliester</t>
-  </si>
-  <si>
-    <t>Dukserica Ultra</t>
-  </si>
-  <si>
-    <t>ZS000345</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus dukserica ultra. Pruža iznimnu udobnost i izdržljivost. Vrhunski 65% pamuk, 35% poliester za najbolju izvedbu.</t>
-  </si>
-  <si>
-    <t>dukserica-ultra</t>
-  </si>
-  <si>
-    <t>1186_1_FELPA ULTRA BLU.jpg, 1186_23_FELPA ULTRA GRIGIO.jpg, 1186_24_FELPA ULTRA ROSSO.jpg, 1186_24_RETRO FELPA ULTRA ROSSA.jpg, 1186_2_FELPA ULTRA NERA.jpg, 1186_3_FELPA ULTRA ROYAL.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Enea</t>
-  </si>
-  <si>
-    <t>ZS000346</t>
-  </si>
-  <si>
-    <t>Iskusite profesionalnu izvedbu s Zeus gornji dio trenirke enea. Pruža iznimnu udobnost i izdržljivost. Izrađeno od 85% poliester, 15% pamuka za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-enea</t>
-  </si>
-  <si>
-    <t>816_231_FELPA ENEA ROSSA OK.jpg, 816_238_FELPA ENEA BLU OK.jpg, 816_239_FELPA ENEA NERA OK.jpg, 816_240_FELPA ENEA GIALLO FLUO OK.jpg, 816_240_FELPA ENEA GIALLO FLUO RETRO.jpg, 816_241_FELPA ENEA ROYAL OK.jpg, 816_242_FELPA ENEA VERDE OK.jpg, 816_243_FELPA ENEA GIALLO OK.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Enea zip up</t>
-  </si>
-  <si>
-    <t>ZS000347</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus gornji dio trenirke enea zip up. Dizajnirano za optimalne performanse. 85% poliester, 15% pamuk konstrukcija za najbolje rezultate.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-enea-zip-up</t>
-  </si>
-  <si>
-    <t>830_231_GIACCA ENEA ROSSA OK.jpg, 830_240_GIACCA ENEA GIALLO FLUO OK.jpg, 830_241_GIACCA ENEA ROYAL OK.jpg, 830_242_GIACCA ENEA RETRO VERDE.jpg, 830_242_GIACCA ENEA VERDE OK.jpg, 830_243_GIACCA ENEA GIALLO OK.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Glitch</t>
-  </si>
-  <si>
-    <t>ZS000348</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus gornji dio trenirke glitch. Savršeno za treninge i natjecanja. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-glitch</t>
-  </si>
-  <si>
-    <t>1304_89_felpa-girocollo-glitch-nero-giallo-fronte.jpg, 1304_89_felpa-girocollo-glitch-nero-giallo-retro.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Monolith micro</t>
-  </si>
-  <si>
-    <t>ZS000349</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus gornji dio trenirke monolith micro. Dizajnirano za optimalne performanse. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-monolith-micro</t>
-  </si>
-  <si>
-    <t>1018_1_giacca micro monolith blu.jpg, 1018_24_giacca micro monolith rosso.jpg, 1018_25_giacca micro monolith giallo.jpg, 1018_26_giacca micro monolith Verde.jpg, 1018_2_fronte nero.jpg, 1018_2_retro.jpg, 1018_3_giacca micro monolith royal.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Monolith train</t>
-  </si>
-  <si>
-    <t>ZS000350</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus gornji dio trenirke monolith train. Izrađeno prema najvišim standardima kvalitete. Kvalitetni 100% poli brušeno osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-monolith-train</t>
-  </si>
-  <si>
-    <t>1020_1_FELPA TRAIN MONOLITH BLU.jpg, 1020_24_FELPA TRAIN MONOLITH ROSSO.jpg, 1020_25_FELPA TRAIN MONOLITH GIALLO.jpg, 1020_26_FELPA TRAIN MONOLITH VERDE.jpg, 1020_2_FELPA TRAIN MONOLITH NERA.jpg, 1020_3_felpa train monolith retro royal.jpg, 1020_3_FELPA TRAIN MONOLITH ROYAL.jpg</t>
-  </si>
-  <si>
-    <t>100% Poli brušeno</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Monolith zip up</t>
-  </si>
-  <si>
-    <t>ZS000351</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus gornji dio trenirke monolith zip up. Izrađeno prema najvišim standardima kvalitete. Vrhunski 100% brušeni poliester za najbolju izvedbu.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-monolith-zip-up</t>
-  </si>
-  <si>
-    <t>1017_1_giacca relax monolith BLU.jpg, 1017_2_FELPA RELAX MONOLITH RETRO.jpg, 1017_2_giacca relax monolith.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Pile</t>
-  </si>
-  <si>
-    <t>ZS000352</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus gornji dio trenirke pile. Dizajnirano za optimalne performanse. Izrađeno od 100% mekani poliestera za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-pile</t>
-  </si>
-  <si>
-    <t>felpa_pile_blu.jpg, felpa_pile_grigia.jpg, felpa_pile_nera.jpg, felpa_pile_rossa.jpg, felpa_pile_royal.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Spot</t>
-  </si>
-  <si>
-    <t>ZS000353</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus gornji dio trenirke spot. Dizajnirano za optimalne performanse. Kvalitetni 65% pamuk, 35% poliester osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-spot</t>
-  </si>
-  <si>
-    <t>1187_1_FEELPA SPOT BLU.jpg, 1187_23_FEELPA SPOT GRIGI.jpg, 1187_24_FEELPA SPOT rosso.jpg, 1187_2_FEELPA SPOT nera.jpg, 1187_3_FEELPA SPOT royal.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Start</t>
-  </si>
-  <si>
-    <t>ZS000354</t>
-  </si>
-  <si>
-    <t>Otkrijte vrhunsku kvalitetu Zeus gornji dio trenirke start. Izrađeno prema najvišim standardima kvalitete. Koristi 100% poliester za optimalnu udobnost.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-start</t>
-  </si>
-  <si>
-    <t>1337_1_GIACCA-RELAX-BLU-ROYAL.jpg, 1337_23_GIACCA-RELAX-GRIGIA.jpg, 1337_24_GIACCA-RELAX-ROSSA-fronte def.jpg, 1337_25_GIACCA-RELAX-GIALLA-def.jpg, 1337_26_GIACCA-RELAX-VERDE.jpg, 1337_27_GIACCA-RELAX-GRANATA.jpg, 1337_2_GIACCA-RELAX-NERA.jpg, 1337_300_GIACCA-RALEX-START-PINK-FLUO-FRONTE.jpg, 1337_3_GIACCA-RELAX-ROYAL-BLU.jpg, 1337_4_GIACCA-RELAX-BIANCA.jpg, 1337_95_GIACCA-RELAX-ARANCIO-FLUO-FRONTE.jpg, 1337_95_GIACCA-RELAX-ARANCIO-FLUO-RETRO-.jpg, 1337_96_GIACCA-RELAX-BLU-GIALLO-FLUO.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Start train</t>
-  </si>
-  <si>
-    <t>ZS000355</t>
-  </si>
-  <si>
-    <t>Unaprijedite svoj igru s Zeus gornji dio trenirke start train. Dizajnirano za optimalne performanse. Kvalitetni 100% poliester osigurava vrhunsku izdržljivost.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-start-train</t>
-  </si>
-  <si>
-    <t>1338_1_FELPA-START-BLU-ROYAL-FRONTE.jpg, 1338_23_FELPA-START-GRIGIA-FRONTE.jpg, 1338_24_FELPA-START-ROSSA-FRONTE-def.jpg, 1338_25_FELPA-START-GIALLA-FRONTE-def.jpg, 1338_26_FELPA-START-VERDE-FRONTE.jpg, 1338_27_FELPA-START-GRANATA-FRONTE.jpg, 1338_2_FELPA-START-NERO-BIANCA-FRONTE.jpg, 1338_300_FELPA-START-PINK-FLUO-FRONTE.jpg, 1338_3_FELPA-START-ROYAL-BLU-FRONTE.jpg, 1338_3_FELPA-START-ROYAL-BLU-RETRO.jpg, 1338_4_FELPA-START-BIANCA-FRONTE-.jpg, 1338_95_FELPA-RELAX-START-ARANCIO-FLUO-FRONTE.jpg, 1338_96_FELPA-START-BLU-GIALLO-FLUO-FRONTE.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Tech</t>
-  </si>
-  <si>
-    <t>ZS000356</t>
-  </si>
-  <si>
-    <t>Otkrijte vrhunsku kvalitetu Zeus gornji dio trenirke tech. Dizajnirano za optimalne performanse. 60% pamuk, 40% poliester konstrukcija za najbolje rezultate.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-tech</t>
-  </si>
-  <si>
-    <t>1199_1_techblu.jpg, 1199_24_techrosso.jpg, 1199_259_felpatechgrigio01fronte.jpg, 1199_27_FELPA-TECH-MONOCOLOR-GRANATA-RETRO.jpg, 1199_27_techgranata.jpg, 1199_2_NERO01.jpg, 1199_3_royal01.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Tech Bikolor</t>
-  </si>
-  <si>
-    <t>ZS000357</t>
-  </si>
-  <si>
-    <t>Doživite razliku s Zeus gornji dio trenirke tech bikolor. Izrađeno prema najvišim standardima kvalitete. Vrhunski 60% pamuk, 40% poliester za najbolju izvedbu.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-tech-bikolor</t>
-  </si>
-  <si>
-    <t>1201_13_01blu_royal copia.jpg, 1201_19_grigianera01.jpg, 1201_275_verde01.jpg, 1201_85_bikolorrossoblu_01_.jpg, 1201_85_bikolorrossoblu_retro.jpg</t>
-  </si>
-  <si>
-    <t>Gornji dio trenirke Ultra</t>
-  </si>
-  <si>
-    <t>ZS000358</t>
-  </si>
-  <si>
-    <t>Iskusite profesionalnu izvedbu s Zeus gornji dio trenirke ultra. Izrađeno prema najvišim standardima kvalitete. 65% pamuk, 35% poliester konstrukcija za najbolje rezultate.</t>
-  </si>
-  <si>
-    <t>gornji-dio-trenirke-ultra</t>
-  </si>
-  <si>
-    <t>1185_1_FELPA ULTRA CON ZIP BLU.jpg, 1185_23_FELPA ULTRA CON ZIP GRIGIO.jpg, 1185_24_FELPA ULTRA CON ZIP ROSSO.jpg, 1185_2_FELPA ULTRA CON ZIP NERO.jpg, 1185_3_FELPA ULTRA CON ZIP ROYAL.jpg, 1185_3_RETRO FELPA ULTRA CON ZIP royal-.jpg</t>
-  </si>
-  <si>
-    <t>Trenirka Apollo</t>
-  </si>
-  <si>
-    <t>ZS000359</t>
-  </si>
-  <si>
-    <t>Podignite svoju igru s Zeus trenirka apollo. Pruža iznimnu udobnost i izdržljivost. Izrađeno od 100% poliestera za dugotrajnu uporabu.</t>
-  </si>
-  <si>
-    <t>trenirka-apollo</t>
   </si>
   <si>
     <t>708_30_TUTA APOLLO GRANATA-BLU MOCKUP.jpg, 708_48_TUTA APOLLO BIANCO-ROYAL MOCKUP.jpg, 708_50_TUTA APOLLO BIANCO-ROSSO MOCKUP.jpg, tuta_apollo_bianco-nero_mockup.jpg, tuta_apollo_blu-bianco_mockup.jpg, tuta_apollo_blu-giallo_fluo_mockup.jpg, tuta_apollo_blu-giallo_mockup.jpg, tuta_apollo_blu-rosa_mockup.jpg, tuta_apollo_blu-royal_mockup.jpg, tuta_apollo_blu-verde_mockup.jpg, tuta_apollo_nero-arancio_fluo_mockup.jpg, tuta_apollo_nero-giallo_fluo_mockup.jpg, tuta_apollo_nero-verde_fluo_mockup.jpg, tuta_apollo_retro.jpg, tuta_apollo_rosso-nero_mockup.jpg, tuta_apollo_rosso_mockup.jpg</t>
@@ -7785,8 +7788,8 @@
     <col min="4" max="4" width="20.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="52" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="85.5781" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.3125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="85.6719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.3516" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.1719" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.85156" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
@@ -27124,10 +27127,10 @@
         <v>2070</v>
       </c>
       <c r="G361" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H361" t="s" s="6">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="I361" s="15">
         <v>52.125</v>
@@ -27162,26 +27165,26 @@
     </row>
     <row r="362" ht="19.9" customHeight="1">
       <c r="A362" t="s" s="5">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B362" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C362" t="s" s="6">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D362" s="13"/>
       <c r="E362" t="s" s="8">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="F362" t="s" s="14">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="G362" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H362" t="s" s="6">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="I362" s="15">
         <v>85.875</v>
@@ -27193,10 +27196,10 @@
         <v>25</v>
       </c>
       <c r="L362" t="s" s="6">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="M362" t="s" s="8">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="N362" t="s" s="6">
         <v>23</v>
@@ -27213,31 +27216,31 @@
       <c r="T362" s="13"/>
       <c r="U362" s="13"/>
       <c r="V362" t="s" s="16">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="363" ht="19.9" customHeight="1">
       <c r="A363" t="s" s="5">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="B363" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C363" t="s" s="6">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="D363" s="13"/>
       <c r="E363" t="s" s="8">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="F363" t="s" s="14">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="G363" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H363" t="s" s="6">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="I363" s="15">
         <v>78.375</v>
@@ -27249,16 +27252,16 @@
         <v>25</v>
       </c>
       <c r="L363" t="s" s="6">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="M363" t="s" s="8">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="N363" t="s" s="6">
         <v>23</v>
       </c>
       <c r="O363" t="s" s="8">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="P363" s="13"/>
       <c r="Q363" s="13"/>
@@ -27269,31 +27272,31 @@
       <c r="T363" s="13"/>
       <c r="U363" s="13"/>
       <c r="V363" t="s" s="16">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="364" ht="19.9" customHeight="1">
       <c r="A364" t="s" s="5">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="B364" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C364" t="s" s="6">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="D364" s="13"/>
       <c r="E364" t="s" s="8">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="F364" t="s" s="14">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="G364" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H364" t="s" s="6">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="I364" s="15">
         <v>52.125</v>
@@ -27305,10 +27308,10 @@
         <v>25</v>
       </c>
       <c r="L364" t="s" s="6">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="M364" t="s" s="8">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="N364" t="s" s="6">
         <v>23</v>
@@ -27328,26 +27331,26 @@
     </row>
     <row r="365" ht="19.9" customHeight="1">
       <c r="A365" t="s" s="5">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="B365" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C365" t="s" s="6">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="D365" s="13"/>
       <c r="E365" t="s" s="8">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="F365" t="s" s="14">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="G365" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H365" t="s" s="6">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="I365" s="15">
         <v>44.625</v>
@@ -27359,10 +27362,10 @@
         <v>25</v>
       </c>
       <c r="L365" t="s" s="6">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="M365" t="s" s="8">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="N365" t="s" s="6">
         <v>23</v>
@@ -27382,26 +27385,26 @@
     </row>
     <row r="366" ht="19.9" customHeight="1">
       <c r="A366" t="s" s="5">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="B366" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C366" t="s" s="6">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="D366" s="13"/>
       <c r="E366" t="s" s="8">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="F366" t="s" s="14">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="G366" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H366" t="s" s="6">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="I366" s="15">
         <v>97.125</v>
@@ -27413,10 +27416,10 @@
         <v>25</v>
       </c>
       <c r="L366" t="s" s="6">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="M366" t="s" s="8">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N366" t="s" s="6">
         <v>23</v>
@@ -27436,26 +27439,26 @@
     </row>
     <row r="367" ht="19.9" customHeight="1">
       <c r="A367" t="s" s="5">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B367" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C367" t="s" s="6">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="D367" s="13"/>
       <c r="E367" t="s" s="8">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="F367" t="s" s="14">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="G367" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H367" t="s" s="6">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="I367" s="15">
         <v>93.375</v>
@@ -27467,10 +27470,10 @@
         <v>25</v>
       </c>
       <c r="L367" t="s" s="6">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="M367" t="s" s="8">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="N367" t="s" s="6">
         <v>23</v>
@@ -27490,26 +27493,26 @@
     </row>
     <row r="368" ht="19.9" customHeight="1">
       <c r="A368" t="s" s="5">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="B368" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C368" t="s" s="6">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="D368" s="13"/>
       <c r="E368" t="s" s="8">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="F368" t="s" s="14">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="G368" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H368" t="s" s="6">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="I368" s="15">
         <v>130.875</v>
@@ -27521,10 +27524,10 @@
         <v>25</v>
       </c>
       <c r="L368" t="s" s="6">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="M368" t="s" s="8">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="N368" t="s" s="6">
         <v>23</v>
@@ -27544,26 +27547,26 @@
     </row>
     <row r="369" ht="19.9" customHeight="1">
       <c r="A369" t="s" s="5">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="B369" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C369" t="s" s="6">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="D369" s="13"/>
       <c r="E369" t="s" s="8">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="F369" t="s" s="14">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="G369" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H369" t="s" s="6">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="I369" s="15">
         <v>55.875</v>
@@ -27575,10 +27578,10 @@
         <v>25</v>
       </c>
       <c r="L369" t="s" s="6">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="M369" t="s" s="8">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="N369" t="s" s="6">
         <v>23</v>
@@ -27598,26 +27601,26 @@
     </row>
     <row r="370" ht="19.9" customHeight="1">
       <c r="A370" t="s" s="5">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="B370" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C370" t="s" s="6">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="D370" s="13"/>
       <c r="E370" t="s" s="8">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="F370" t="s" s="14">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="G370" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H370" t="s" s="6">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="I370" s="15">
         <v>55.875</v>
@@ -27629,10 +27632,10 @@
         <v>25</v>
       </c>
       <c r="L370" t="s" s="6">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="M370" t="s" s="8">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="N370" t="s" s="6">
         <v>23</v>
@@ -27652,26 +27655,26 @@
     </row>
     <row r="371" ht="19.9" customHeight="1">
       <c r="A371" t="s" s="5">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="B371" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C371" t="s" s="6">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="D371" s="13"/>
       <c r="E371" t="s" s="8">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="F371" t="s" s="14">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="G371" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H371" t="s" s="6">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="I371" s="15">
         <v>63.375</v>
@@ -27683,10 +27686,10 @@
         <v>25</v>
       </c>
       <c r="L371" t="s" s="6">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="M371" t="s" s="8">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="N371" t="s" s="6">
         <v>23</v>
@@ -27704,26 +27707,26 @@
     </row>
     <row r="372" ht="19.9" customHeight="1">
       <c r="A372" t="s" s="5">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="B372" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C372" t="s" s="6">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="D372" s="13"/>
       <c r="E372" t="s" s="8">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="F372" t="s" s="14">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="G372" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H372" t="s" s="6">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="I372" s="15">
         <v>65.625</v>
@@ -27735,10 +27738,10 @@
         <v>25</v>
       </c>
       <c r="L372" t="s" s="6">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="M372" t="s" s="8">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="N372" t="s" s="6">
         <v>23</v>
@@ -27758,26 +27761,26 @@
     </row>
     <row r="373" ht="19.9" customHeight="1">
       <c r="A373" t="s" s="5">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="B373" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C373" t="s" s="6">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="D373" s="13"/>
       <c r="E373" t="s" s="8">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="F373" t="s" s="14">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="G373" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H373" t="s" s="6">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="I373" s="15">
         <v>85.875</v>
@@ -27789,10 +27792,10 @@
         <v>25</v>
       </c>
       <c r="L373" t="s" s="6">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="M373" t="s" s="8">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="N373" t="s" s="6">
         <v>23</v>
@@ -27809,31 +27812,31 @@
       <c r="T373" s="13"/>
       <c r="U373" s="13"/>
       <c r="V373" t="s" s="16">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="374" ht="19.9" customHeight="1">
       <c r="A374" t="s" s="5">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="B374" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C374" t="s" s="6">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="D374" s="13"/>
       <c r="E374" t="s" s="8">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="F374" t="s" s="14">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="G374" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H374" t="s" s="6">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="I374" s="15">
         <v>110.625</v>
@@ -27845,10 +27848,10 @@
         <v>25</v>
       </c>
       <c r="L374" t="s" s="6">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="M374" t="s" s="8">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="N374" t="s" s="6">
         <v>23</v>
@@ -27868,26 +27871,26 @@
     </row>
     <row r="375" ht="19.9" customHeight="1">
       <c r="A375" t="s" s="5">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B375" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C375" t="s" s="6">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="D375" s="13"/>
       <c r="E375" t="s" s="8">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="F375" t="s" s="14">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="G375" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H375" t="s" s="6">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="I375" s="15">
         <v>52.125</v>
@@ -27899,10 +27902,10 @@
         <v>25</v>
       </c>
       <c r="L375" t="s" s="6">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="M375" t="s" s="8">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N375" t="s" s="6">
         <v>23</v>
@@ -27922,26 +27925,26 @@
     </row>
     <row r="376" ht="19.9" customHeight="1">
       <c r="A376" t="s" s="5">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="B376" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C376" t="s" s="6">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="D376" s="13"/>
       <c r="E376" t="s" s="8">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="F376" t="s" s="14">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="G376" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H376" t="s" s="6">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I376" s="15">
         <v>52.125</v>
@@ -27953,10 +27956,10 @@
         <v>25</v>
       </c>
       <c r="L376" t="s" s="6">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="M376" t="s" s="8">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="N376" t="s" s="6">
         <v>23</v>
@@ -27976,26 +27979,26 @@
     </row>
     <row r="377" ht="19.9" customHeight="1">
       <c r="A377" t="s" s="5">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="B377" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C377" t="s" s="6">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="D377" s="13"/>
       <c r="E377" t="s" s="8">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="F377" t="s" s="14">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G377" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H377" t="s" s="6">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I377" s="15">
         <v>55.875</v>
@@ -28007,10 +28010,10 @@
         <v>25</v>
       </c>
       <c r="L377" t="s" s="6">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="M377" t="s" s="8">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="N377" t="s" s="6">
         <v>23</v>
@@ -28030,26 +28033,26 @@
     </row>
     <row r="378" ht="19.9" customHeight="1">
       <c r="A378" t="s" s="5">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="B378" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D378" s="13"/>
       <c r="E378" t="s" s="8">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="F378" t="s" s="14">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="G378" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H378" t="s" s="6">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I378" s="15">
         <v>70.875</v>
@@ -28061,10 +28064,10 @@
         <v>25</v>
       </c>
       <c r="L378" t="s" s="6">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="M378" t="s" s="8">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="N378" t="s" s="6">
         <v>23</v>
@@ -28084,26 +28087,26 @@
     </row>
     <row r="379" ht="19.9" customHeight="1">
       <c r="A379" t="s" s="5">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B379" t="s" s="6">
         <v>23</v>
       </c>
       <c r="C379" t="s" s="6">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="D379" s="13"/>
       <c r="E379" t="s" s="8">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="F379" t="s" s="14">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G379" t="s" s="14">
-        <v>1839</v>
+        <v>2071</v>
       </c>
       <c r="H379" t="s" s="6">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I379" s="15">
         <v>130.875</v>
@@ -28115,10 +28118,10 @@
         <v>25</v>
       </c>
       <c r="L379" t="s" s="6">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="M379" t="s" s="8">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="N379" t="s" s="6">
         <v>23</v>
